--- a/ApiAPSB/upload/jlv3.xlsx
+++ b/ApiAPSB/upload/jlv3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\AirpocketServices2024\ApiAPSB\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E6101-0335-432E-B08B-692233671AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EB6696-4192-4722-BC97-87167AF7072C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1412,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1420,15 +1420,79 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,109 +1502,311 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1550,279 +1816,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2189,7 +2182,7 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2206,160 +2199,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="135"/>
-      <c r="B1" s="136"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="34" t="s">
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
     </row>
     <row r="2" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="137"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
     </row>
     <row r="3" spans="1:27" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="63" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
     </row>
     <row r="4" spans="1:27" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="132"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="144"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="H5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="129" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="68"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="27"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="53" t="s">
@@ -2376,666 +2369,659 @@
       </c>
       <c r="I7" s="56"/>
       <c r="J7" s="54"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="91"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="35" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="73" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="30">
         <v>1</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="15"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="30">
         <v>3</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="30">
         <v>4</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="75" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="15"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:27" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="18"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="93" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="15"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="15"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="134"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="75"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="134"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="75"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="134"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:11" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="80"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="15"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="134"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="79"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="15"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="79"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="15"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="70"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="15"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="70"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="134"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="75"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="79"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="15"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="70"/>
     </row>
     <row r="27" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="15"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="70"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="105" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="107"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="82"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="15"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="15"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="15"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="70"/>
     </row>
     <row r="32" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="15"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="70"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="114" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="114" t="s">
+      <c r="D33" s="62"/>
+      <c r="E33" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="113"/>
-      <c r="G33" s="114" t="s">
+      <c r="F33" s="62"/>
+      <c r="G33" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="115"/>
-      <c r="I33" s="114" t="s">
+      <c r="H33" s="63"/>
+      <c r="I33" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="116"/>
+      <c r="J33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="24"/>
+      <c r="G34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="118"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="80"/>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="120"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="79"/>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="120"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="79"/>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="139" t="s">
+      <c r="A37" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14" t="s">
+      <c r="B37" s="69"/>
+      <c r="C37" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14" t="s">
+      <c r="D37" s="69"/>
+      <c r="E37" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14" t="s">
+      <c r="F37" s="68"/>
+      <c r="G37" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="120"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="79"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="121" t="s">
+      <c r="A38" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="122"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="16"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="71"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="124"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="126"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="78"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="124"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="126"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="78"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="124"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="16"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="71"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="124"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="126"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="78"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="124"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="126"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="78"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="127"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="129"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="84"/>
     </row>
     <row r="45" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A38:J44"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F15:F26"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H1:J2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A14:J14"/>
@@ -3052,33 +3038,40 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H1:J2"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F15:F26"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A38:J44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
